--- a/tool/data/results/EIG_IEEE_9_headers.xlsx
+++ b/tool/data/results/EIG_IEEE_9_headers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,313 +462,313 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1422159045249534</v>
+        <v>94.91805560761412</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-1173.349099055694</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>186.7443090871357</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>-0.08063158688862514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.142466176269576</v>
+        <v>94.91805560761412</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1173.349099055694</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>186.7443090871357</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>-0.08063158688862514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.165533335119983</v>
+        <v>19.81213049000772</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1262.171034752485</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>200.8807592082704</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>-0.01569493327291636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3543719250574918</v>
+        <v>19.81213049000772</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5139310338245626</v>
+        <v>-1262.171034752485</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08179466444150721</v>
+        <v>200.8807592082704</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5676642692878369</v>
+        <v>-0.01569493327291636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3543719250574918</v>
+        <v>-0.1420037404163566</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5139310338245626</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08179466444150721</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5676642692878369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4568406385215658</v>
+        <v>-0.142363780868526</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5819907105592104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09262669841906286</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6174556454717596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4568406385215658</v>
+        <v>-0.2126205373039095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5819907105592104</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09262669841906286</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6174556454717596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5652009624206591</v>
+        <v>-0.4225012996226027</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6407712557167538</v>
+        <v>-314.1583374207271</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1019819127385223</v>
+        <v>49.99985231404028</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6614995990335911</v>
+        <v>0.001344866162106508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5652009624206591</v>
+        <v>-0.4225012996226027</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6407712557167538</v>
+        <v>314.1583374207271</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1019819127385223</v>
+        <v>49.99985231404028</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6614995990335911</v>
+        <v>0.001344866162106508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7694975916112128</v>
+        <v>-0.4992924137754288</v>
       </c>
       <c r="D11" t="n">
-        <v>-314.1427669152914</v>
+        <v>-0.6063909499170831</v>
       </c>
       <c r="E11" t="n">
-        <v>49.99737419113374</v>
+        <v>0.09651011712549372</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0024495081985691</v>
+        <v>0.6356402141647913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.7694975916112128</v>
+        <v>-0.4992924137754288</v>
       </c>
       <c r="D12" t="n">
-        <v>314.1427669152914</v>
+        <v>0.6063909499170831</v>
       </c>
       <c r="E12" t="n">
-        <v>49.99737419113374</v>
+        <v>0.09651011712549372</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0024495081985691</v>
+        <v>0.6356402141647913</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7996843775227293</v>
+        <v>-0.6501271704515118</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.5930817207513854</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.09439188751503011</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.7387755020242471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7997374249927522</v>
+        <v>-0.6501271704515118</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.5930817207513854</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.09439188751503011</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.7387755020242471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7998882383586782</v>
+        <v>-0.6936806444962684</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001097398849740903</v>
+        <v>-314.1591892865042</v>
       </c>
       <c r="E15" t="n">
-        <v>1.746564514796248e-05</v>
+        <v>49.99998789268955</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999999905889002</v>
+        <v>0.002208049221976008</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7998882383586782</v>
+        <v>-0.6936806444962684</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0001097398849740903</v>
+        <v>314.1591892865042</v>
       </c>
       <c r="E16" t="n">
-        <v>1.746564514796248e-05</v>
+        <v>49.99998789268955</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999999905889002</v>
+        <v>0.002208049221976008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7999146305254946</v>
+        <v>-0.7997148513877224</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -782,13 +782,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.800002790053897</v>
+        <v>-0.8000453120449391</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -802,133 +802,133 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.083960335653413</v>
+        <v>-0.8962580506087696</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.143927281894566</v>
+        <v>0.7119872495595032</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9778363969106729</v>
+        <v>0.1133162901857978</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1737445873516943</v>
+        <v>0.7830032296898307</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.083960335653413</v>
+        <v>-0.8962580506087696</v>
       </c>
       <c r="D20" t="n">
-        <v>6.143927281894566</v>
+        <v>-0.7119872495595032</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9778363969106729</v>
+        <v>0.1133162901857978</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1737445873516943</v>
+        <v>0.7830032296898307</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.157070011830151</v>
+        <v>-0.9964116402013588</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.055088598915604</v>
+        <v>314.1602091826555</v>
       </c>
       <c r="E21" t="n">
-        <v>1.122852224468692</v>
+        <v>50.00015021420347</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1618428754827697</v>
+        <v>0.003171651276727562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.157070011830151</v>
+        <v>-0.9964116402013588</v>
       </c>
       <c r="D22" t="n">
-        <v>7.055088598915604</v>
+        <v>-314.1602091826555</v>
       </c>
       <c r="E22" t="n">
-        <v>1.122852224468692</v>
+        <v>50.00015021420347</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1618428754827697</v>
+        <v>0.003171651276727562</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.340941793205552</v>
+        <v>-1.357479234486899</v>
       </c>
       <c r="D23" t="n">
-        <v>-314.1571886613899</v>
+        <v>-6.539955573509279</v>
       </c>
       <c r="E23" t="n">
-        <v>49.99966948331334</v>
+        <v>1.040866257125393</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004268339628769561</v>
+        <v>0.2032351109021502</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.340941793205552</v>
+        <v>-1.357479234486899</v>
       </c>
       <c r="D24" t="n">
-        <v>314.1571886613899</v>
+        <v>6.539955573509279</v>
       </c>
       <c r="E24" t="n">
-        <v>49.99966948331334</v>
+        <v>1.040866257125393</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004268339628769561</v>
+        <v>0.2032351109021502</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.626912331920342</v>
+        <v>-1.547964911227811</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -942,133 +942,133 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.673279221047197</v>
+        <v>-1.681264378834292</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.282196794129931</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.8406877301699411</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.3032962757143965</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.675630678921282</v>
+        <v>-1.681264378834292</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-5.282196794129931</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.8406877301699411</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.3032962757143965</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.783696685380018</v>
+        <v>-1.690225757366583</v>
       </c>
       <c r="D28" t="n">
-        <v>-314.12769771622</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>49.99497585361309</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005678161918122051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.783696685380018</v>
+        <v>-1.691351381836447</v>
       </c>
       <c r="D29" t="n">
-        <v>314.12769771622</v>
+        <v>1.401922456383224</v>
       </c>
       <c r="E29" t="n">
-        <v>49.99497585361309</v>
+        <v>0.2231228887649221</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005678161918122051</v>
+        <v>0.7699059232755373</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.640106698368987</v>
+        <v>-1.691351381836447</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.216038352369655</v>
+        <v>-1.401922456383224</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3526934578608499</v>
+        <v>0.2231228887649221</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7659407497053825</v>
+        <v>0.7699059232755373</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.640106698368987</v>
+        <v>-1.703315894653822</v>
       </c>
       <c r="D31" t="n">
-        <v>2.216038352369655</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3526934578608499</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7659407497053825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.838523109446376</v>
+        <v>-2.212565526535568</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.932009888294544</v>
+        <v>-2.266152195224942</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.333333332950108</v>
+        <v>-3.333333333297706</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1122,19 +1122,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B35" t="n">
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.333333333367828</v>
+        <v>-3.333333333629259</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.204620350209468e-10</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.508762263768223e-11</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1142,19 +1142,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B36" t="n">
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.333333333367828</v>
+        <v>-3.333333333718244</v>
       </c>
       <c r="D36" t="n">
-        <v>2.204620350209468e-10</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>3.508762263768223e-11</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1162,13 +1162,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.676797779589967</v>
+        <v>-3.404195509066055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1188,287 +1188,287 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>-4.379304090342615</v>
+        <v>-4.692573219048356</v>
       </c>
       <c r="D38" t="n">
-        <v>291.0209642027789</v>
+        <v>-235.1714766401152</v>
       </c>
       <c r="E38" t="n">
-        <v>46.3174249962418</v>
+        <v>37.42870298149453</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01504636737084445</v>
+        <v>0.01994986542503916</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" t="n">
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>-4.379304090342615</v>
+        <v>-4.692573219048356</v>
       </c>
       <c r="D39" t="n">
-        <v>-291.0209642027789</v>
+        <v>235.1714766401152</v>
       </c>
       <c r="E39" t="n">
-        <v>46.3174249962418</v>
+        <v>37.42870298149453</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01504636737084445</v>
+        <v>0.01994986542503916</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B40" t="n">
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.174402751712947</v>
+        <v>-5.081731139223886</v>
       </c>
       <c r="D40" t="n">
-        <v>36.52690893826379</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>5.813438113392216</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1402596783438067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B41" t="n">
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.174402751712947</v>
+        <v>-5.941623798688421</v>
       </c>
       <c r="D41" t="n">
-        <v>-36.52690893826379</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.813438113392216</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1402596783438067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B42" t="n">
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>-5.282292808060343</v>
+        <v>-6.706437585069193</v>
       </c>
       <c r="D42" t="n">
-        <v>-28.36990950203215</v>
+        <v>32.94643630800122</v>
       </c>
       <c r="E42" t="n">
-        <v>4.515211332318148</v>
+        <v>5.243588195680689</v>
       </c>
       <c r="F42" t="n">
-        <v>0.18304758686377</v>
+        <v>0.199465305368656</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B43" t="n">
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>-5.282292808060343</v>
+        <v>-6.706437585069193</v>
       </c>
       <c r="D43" t="n">
-        <v>28.36990950203215</v>
+        <v>-32.94643630800122</v>
       </c>
       <c r="E43" t="n">
-        <v>4.515211332318148</v>
+        <v>5.243588195680689</v>
       </c>
       <c r="F43" t="n">
-        <v>0.18304758686377</v>
+        <v>0.199465305368656</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B44" t="n">
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.784122299601983</v>
+        <v>-9.156115555301383</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>313.8403662467795</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>49.94924562994579</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.02916202764836573</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B45" t="n">
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>-6.025398622174875</v>
+        <v>-9.156115555301383</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-313.8403662467795</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>49.94924562994579</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0.02916202764836573</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B46" t="n">
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>-7.292172648318044</v>
+        <v>-9.854850807281016</v>
       </c>
       <c r="D46" t="n">
-        <v>14.78478907263056</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.353072263480193</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4423434136604223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B47" t="n">
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.292172648318044</v>
+        <v>-9.964512679084464</v>
       </c>
       <c r="D47" t="n">
-        <v>-14.78478907263056</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>2.353072263480193</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4423434136604223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B48" t="n">
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>-8.924743078611051</v>
+        <v>-9.969727915893683</v>
       </c>
       <c r="D48" t="n">
-        <v>-235.7188210235522</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>37.51581554569211</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03783470926341255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B49" t="n">
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>-8.924743078611051</v>
+        <v>-10.30865506441253</v>
       </c>
       <c r="D49" t="n">
-        <v>235.7188210235522</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>37.51581554569211</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03783470926341255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B50" t="n">
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>-9.163676871917531</v>
+        <v>-10.32746578611114</v>
       </c>
       <c r="D50" t="n">
-        <v>-313.1539771293113</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>49.84000340901623</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02925000686906723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="B51" t="n">
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>-9.163676871917531</v>
+        <v>-10.42136312027746</v>
       </c>
       <c r="D51" t="n">
-        <v>313.1539771293113</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>49.84000340901623</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02925000686906723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B52" t="n">
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>-9.941240009348684</v>
+        <v>-10.45950819115205</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1482,13 +1482,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B53" t="n">
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>-9.982981030131972</v>
+        <v>-10.47197551196595</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B54" t="n">
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>-10.3032126741119</v>
+        <v>-10.47197551196598</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B55" t="n">
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>-10.33000787686561</v>
+        <v>-10.47197551196599</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1542,53 +1542,53 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B56" t="n">
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>-10.45823486992354</v>
+        <v>-10.471975511966</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.00895057435084348</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001424528151448272</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9999996337692613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B57" t="n">
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>-10.45823486992354</v>
+        <v>-10.47210570952052</v>
       </c>
       <c r="D57" t="n">
-        <v>0.00895057435084348</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001424528151448272</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9999996337692613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B58" t="n">
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>-10.46343601486104</v>
+        <v>-10.47227991657939</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1602,13 +1602,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B59" t="n">
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>-10.47030331914809</v>
+        <v>-10.47547242656246</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B60" t="n">
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>-10.47195663932918</v>
+        <v>-13.51935660452046</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1642,53 +1642,53 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n">
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>-10.47197551194594</v>
+        <v>-13.56810483429066</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>-313.3817633725586</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>49.87625671559738</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0.04325524775877995</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="B62" t="n">
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>-10.47197551196569</v>
+        <v>-13.56810483429066</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>313.3817633725586</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>49.87625671559738</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0.04325524775877995</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="B63" t="n">
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.4719755119659</v>
+        <v>-15.07729636542517</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="B64" t="n">
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.47197551196595</v>
+        <v>-16.67018807252455</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1722,173 +1722,173 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B65" t="n">
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>-10.47197551196597</v>
+        <v>-21.7605137936294</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>-9.696935524435268</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1.543315221557273</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0.9134123573245189</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="B66" t="n">
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.47314469532924</v>
+        <v>-21.7605137936294</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>9.696935524435268</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1.543315221557273</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0.9134123573245189</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B67" t="n">
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.56515276420709</v>
+        <v>-26.18349406458698</v>
       </c>
       <c r="D67" t="n">
-        <v>1.53296283823633</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2439786132814934</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9926399230190549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B68" t="n">
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.56515276420709</v>
+        <v>-32.50613570087573</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.53296283823633</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2439786132814934</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9926399230190549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B69" t="n">
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>-12.59153153918809</v>
+        <v>-33.66562337578901</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4650187444206615</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.07401003180493501</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9993187447957667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B70" t="n">
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.59153153918809</v>
+        <v>-35.95072388117188</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.4650187444206615</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.07401003180493501</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9993187447957667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B71" t="n">
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>-13.07391268448078</v>
+        <v>-36.0439215691241</v>
       </c>
       <c r="D71" t="n">
-        <v>310.0530159623971</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>49.34647011096583</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04212926364148901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B72" t="n">
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>-13.07391268448078</v>
+        <v>-40.08390542769552</v>
       </c>
       <c r="D72" t="n">
-        <v>-310.0530159623971</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>49.34647011096583</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04212926364148901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B73" t="n">
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>-15.25009471432285</v>
+        <v>-40.0844291771888</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1902,153 +1902,153 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B74" t="n">
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>-23.57714846776294</v>
+        <v>-40.09451810337553</v>
       </c>
       <c r="D74" t="n">
-        <v>261.8127945889635</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>41.66880042353657</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0896905177644486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B75" t="n">
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>-23.57714846776294</v>
+        <v>-55.12244612005011</v>
       </c>
       <c r="D75" t="n">
-        <v>-261.8127945889635</v>
+        <v>-314.1151936070311</v>
       </c>
       <c r="E75" t="n">
-        <v>41.66880042353657</v>
+        <v>49.99298576282673</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0896905177644486</v>
+        <v>0.1728436398451862</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B76" t="n">
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>-29.52540404195789</v>
+        <v>-55.12244612005011</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>314.1151936070311</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>49.99298576282673</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0.1728436398451862</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B77" t="n">
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>-33.78924994980817</v>
+        <v>-62.8921506244816</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>-450.7669599661085</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>71.74178986111266</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0.1381840388337629</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B78" t="n">
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>-34.14951643185058</v>
+        <v>-62.8921506244816</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>450.7669599661085</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>71.74178986111266</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0.1381840388337629</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B79" t="n">
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>-35.82495955262124</v>
+        <v>-64.37956811221602</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>-1827.613754074112</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>290.8737630236305</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0.03520418998536082</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B80" t="n">
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>-36.4900831246592</v>
+        <v>-64.37956811221602</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1827.613754074112</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>290.8737630236305</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0.03520418998536082</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B81" t="n">
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>-36.62281720821409</v>
+        <v>-66.71412623317623</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2062,133 +2062,133 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B82" t="n">
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>-38.13308083425864</v>
+        <v>-66.72426882747843</v>
       </c>
       <c r="D82" t="n">
-        <v>-1789.392837674224</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>284.7907152490862</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02130578822514189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B83" t="n">
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>-38.13308083425864</v>
+        <v>-66.78995662007472</v>
       </c>
       <c r="D83" t="n">
-        <v>1789.392837674224</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>284.7907152490862</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.02130578822514189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="B84" t="n">
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>-40.0786097715375</v>
+        <v>-85.98224339302624</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>923.7004751815873</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>147.0114965614822</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0.09268387587252457</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B85" t="n">
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>-40.08349755883087</v>
+        <v>-85.98224339302624</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>-923.7004751815873</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>147.0114965614822</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0.09268387587252457</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B86" t="n">
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>-55.50370585907557</v>
+        <v>-100.3525756361974</v>
       </c>
       <c r="D86" t="n">
-        <v>-313.3534822791732</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>49.87175563978906</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1744131756997932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B87" t="n">
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>-55.50370585907557</v>
+        <v>-100.4571177913673</v>
       </c>
       <c r="D87" t="n">
-        <v>313.3534822791732</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>49.87175563978906</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1744131756997932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B88" t="n">
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>-66.70345281194031</v>
+        <v>-101.1439286768068</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2202,53 +2202,53 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B89" t="n">
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>-66.70497626415059</v>
+        <v>-138.1195410835906</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1648.239447453123</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>262.3254554612188</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0.08350554460537031</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B90" t="n">
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>-66.71825681742475</v>
+        <v>-138.1195410835906</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>-1648.239447453123</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>262.3254554612188</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0.08350554460537031</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B91" t="n">
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>-100.2646676558975</v>
+        <v>-192.7534479053205</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2262,873 +2262,873 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B92" t="n">
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>-100.2753092419013</v>
+        <v>-221.1664773738139</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>-5216.416661375919</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>830.2184968848991</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0.04236010549656315</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B93" t="n">
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>-100.393911373363</v>
+        <v>-221.1664773738139</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>5216.416661375919</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>830.2184968848991</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0.04236010549656315</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B94" t="n">
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>-208.2788197434019</v>
+        <v>-227.3121104587656</v>
       </c>
       <c r="D94" t="n">
-        <v>2416.816375574654</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>384.6482727181448</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0858607541509496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B95" t="n">
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>-208.2788197434019</v>
+        <v>-230.2971531456353</v>
       </c>
       <c r="D95" t="n">
-        <v>-2416.816375574654</v>
+        <v>-5840.978561229135</v>
       </c>
       <c r="E95" t="n">
-        <v>384.6482727181448</v>
+        <v>929.6206105134038</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0858607541509496</v>
+        <v>0.03939722675670461</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B96" t="n">
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>-290.8029365149699</v>
+        <v>-230.2971531456353</v>
       </c>
       <c r="D96" t="n">
-        <v>1147.421851900408</v>
+        <v>5840.978561229135</v>
       </c>
       <c r="E96" t="n">
-        <v>182.6178595416066</v>
+        <v>929.6206105134038</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2456730500094277</v>
+        <v>0.03939722675670461</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B97" t="n">
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>-290.8029365149699</v>
+        <v>-234.8968092672941</v>
       </c>
       <c r="D97" t="n">
-        <v>-1147.421851900408</v>
+        <v>4009.865295125388</v>
       </c>
       <c r="E97" t="n">
-        <v>182.6178595416066</v>
+        <v>638.1898828518472</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2456730500094277</v>
+        <v>0.05847947305894961</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B98" t="n">
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>-298.1960306257052</v>
+        <v>-234.8968092672941</v>
       </c>
       <c r="D98" t="n">
-        <v>-13.35606940274276</v>
+        <v>-4009.865295125388</v>
       </c>
       <c r="E98" t="n">
-        <v>2.125684465724929</v>
+        <v>638.1898828518472</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9989984542504724</v>
+        <v>0.05847947305894961</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B99" t="n">
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>-298.1960306257052</v>
+        <v>-246.5813744997729</v>
       </c>
       <c r="D99" t="n">
-        <v>13.35606940274276</v>
+        <v>4629.258509371685</v>
       </c>
       <c r="E99" t="n">
-        <v>2.125684465724929</v>
+        <v>736.7693746167229</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9989984542504724</v>
+        <v>0.05319044293084532</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B100" t="n">
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>-311.5718814136308</v>
+        <v>-246.5813744997729</v>
       </c>
       <c r="D100" t="n">
-        <v>-22.40578108053497</v>
+        <v>-4629.258509371685</v>
       </c>
       <c r="E100" t="n">
-        <v>3.565990812802008</v>
+        <v>736.7693746167229</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9974243121389551</v>
+        <v>0.05319044293084532</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B101" t="n">
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>-311.5718814136308</v>
+        <v>-254.5633293819562</v>
       </c>
       <c r="D101" t="n">
-        <v>22.40578108053497</v>
+        <v>-4826.697010103067</v>
       </c>
       <c r="E101" t="n">
-        <v>3.565990812802008</v>
+        <v>768.1926879647751</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9974243121389551</v>
+        <v>0.05266749115720292</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B102" t="n">
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>-382.9251733004164</v>
+        <v>-254.5633293819562</v>
       </c>
       <c r="D102" t="n">
-        <v>1623.759248204834</v>
+        <v>4826.697010103067</v>
       </c>
       <c r="E102" t="n">
-        <v>258.4293107429792</v>
+        <v>768.1926879647751</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2295301275357169</v>
+        <v>0.05266749115720292</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B103" t="n">
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>-382.9251733004164</v>
+        <v>-255.9373616736568</v>
       </c>
       <c r="D103" t="n">
-        <v>-1623.759248204834</v>
+        <v>2183.555732277429</v>
       </c>
       <c r="E103" t="n">
-        <v>258.4293107429792</v>
+        <v>347.523688308596</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2295301275357169</v>
+        <v>0.116414329377808</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B104" t="n">
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>-425.1076922620067</v>
+        <v>-255.9373616736568</v>
       </c>
       <c r="D104" t="n">
-        <v>-3484.707076833288</v>
+        <v>-2183.555732277429</v>
       </c>
       <c r="E104" t="n">
-        <v>554.6083565053269</v>
+        <v>347.523688308596</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1210946291119915</v>
+        <v>0.116414329377808</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B105" t="n">
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>-425.1076922620067</v>
+        <v>-259.7600473424127</v>
       </c>
       <c r="D105" t="n">
-        <v>3484.707076833288</v>
+        <v>-5450.945425742489</v>
       </c>
       <c r="E105" t="n">
-        <v>554.6083565053269</v>
+        <v>867.544909031073</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1210946291119915</v>
+        <v>0.04760011004935475</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B106" t="n">
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>-443.0283361420603</v>
+        <v>-259.7600473424127</v>
       </c>
       <c r="D106" t="n">
-        <v>-4682.472263050543</v>
+        <v>5450.945425742489</v>
       </c>
       <c r="E106" t="n">
-        <v>745.2386065551875</v>
+        <v>867.544909031073</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0941935297339158</v>
+        <v>0.04760011004935475</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B107" t="n">
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>-443.0283361420603</v>
+        <v>-288.8556194018753</v>
       </c>
       <c r="D107" t="n">
-        <v>4682.472263050543</v>
+        <v>15.63444484277033</v>
       </c>
       <c r="E107" t="n">
-        <v>745.2386065551875</v>
+        <v>2.488299179224489</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0941935297339158</v>
+        <v>0.9985384275427902</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B108" t="n">
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>-445.7173220868524</v>
+        <v>-288.8556194018753</v>
       </c>
       <c r="D108" t="n">
-        <v>5335.911214444383</v>
+        <v>-15.63444484277033</v>
       </c>
       <c r="E108" t="n">
-        <v>849.236645678302</v>
+        <v>2.488299179224489</v>
       </c>
       <c r="F108" t="n">
-        <v>0.08324171661331906</v>
+        <v>0.9985384275427902</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B109" t="n">
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>-445.7173220868524</v>
+        <v>-299.4241870521411</v>
       </c>
       <c r="D109" t="n">
-        <v>-5335.911214444383</v>
+        <v>8.296682451749449</v>
       </c>
       <c r="E109" t="n">
-        <v>849.236645678302</v>
+        <v>1.32045802345971</v>
       </c>
       <c r="F109" t="n">
-        <v>0.08324171661331906</v>
+        <v>0.9996163323434676</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B110" t="n">
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>-479.1267833079918</v>
+        <v>-299.4241870521411</v>
       </c>
       <c r="D110" t="n">
-        <v>1509.134561573519</v>
+        <v>-8.296682451749449</v>
       </c>
       <c r="E110" t="n">
-        <v>240.1862252652458</v>
+        <v>1.32045802345971</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3026000431730276</v>
+        <v>0.9996163323434676</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B111" t="n">
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>-479.1267833079918</v>
+        <v>-352.596560339515</v>
       </c>
       <c r="D111" t="n">
-        <v>-1509.134561573519</v>
+        <v>2812.224360964398</v>
       </c>
       <c r="E111" t="n">
-        <v>240.1862252652458</v>
+        <v>447.5794081309305</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3026000431730276</v>
+        <v>0.124405927932218</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B112" t="n">
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>-490.4687149531814</v>
+        <v>-352.596560339515</v>
       </c>
       <c r="D112" t="n">
-        <v>2145.503643671089</v>
+        <v>-2812.224360964398</v>
       </c>
       <c r="E112" t="n">
-        <v>341.4675103119263</v>
+        <v>447.5794081309305</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2228541135649412</v>
+        <v>0.124405927932218</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B113" t="n">
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>-490.4687149531814</v>
+        <v>-441.1318953844427</v>
       </c>
       <c r="D113" t="n">
-        <v>-2145.503643671089</v>
+        <v>2881.279537336437</v>
       </c>
       <c r="E113" t="n">
-        <v>341.4675103119263</v>
+        <v>458.5698807966232</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2228541135649412</v>
+        <v>0.1513393185091196</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B114" t="n">
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>-498.8105193455567</v>
+        <v>-441.1318953844427</v>
       </c>
       <c r="D114" t="n">
-        <v>4098.375818312138</v>
+        <v>-2881.279537336437</v>
       </c>
       <c r="E114" t="n">
-        <v>652.2767701326684</v>
+        <v>458.5698807966232</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1208177597270316</v>
+        <v>0.1513393185091196</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" t="n">
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>-498.8105193455567</v>
+        <v>-465.1464052454268</v>
       </c>
       <c r="D115" t="n">
-        <v>-4098.375818312138</v>
+        <v>-3501.57726690028</v>
       </c>
       <c r="E115" t="n">
-        <v>652.2767701326684</v>
+        <v>557.2933306453884</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1208177597270316</v>
+        <v>0.1316823417439671</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B116" t="n">
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>-574.5620109072491</v>
+        <v>-465.1464052454268</v>
       </c>
       <c r="D116" t="n">
-        <v>2645.861205992685</v>
+        <v>3501.57726690028</v>
       </c>
       <c r="E116" t="n">
-        <v>421.1018896688194</v>
+        <v>557.2933306453884</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2122091445694372</v>
+        <v>0.1316823417439671</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B117" t="n">
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>-574.5620109072491</v>
+        <v>-476.7628355077382</v>
       </c>
       <c r="D117" t="n">
-        <v>-2645.861205992685</v>
+        <v>2294.920823056013</v>
       </c>
       <c r="E117" t="n">
-        <v>421.1018896688194</v>
+        <v>365.2479929938854</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2122091445694372</v>
+        <v>0.2034039929509554</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B118" t="n">
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>-581.2802098314025</v>
+        <v>-476.7628355077382</v>
       </c>
       <c r="D118" t="n">
-        <v>-3253.016386907384</v>
+        <v>-2294.920823056013</v>
       </c>
       <c r="E118" t="n">
-        <v>517.7336379352477</v>
+        <v>365.2479929938854</v>
       </c>
       <c r="F118" t="n">
-        <v>0.175903375101699</v>
+        <v>0.2034039929509554</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B119" t="n">
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>-581.2802098314025</v>
+        <v>-502.4841455399299</v>
       </c>
       <c r="D119" t="n">
-        <v>3253.016386907384</v>
+        <v>2928.609880865267</v>
       </c>
       <c r="E119" t="n">
-        <v>517.7336379352477</v>
+        <v>466.1027389274739</v>
       </c>
       <c r="F119" t="n">
-        <v>0.175903375101699</v>
+        <v>0.169106597344933</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B120" t="n">
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>-585.7707473136325</v>
+        <v>-502.4841455399299</v>
       </c>
       <c r="D120" t="n">
-        <v>5720.825609177909</v>
+        <v>-2928.609880865267</v>
       </c>
       <c r="E120" t="n">
-        <v>910.4976742673675</v>
+        <v>466.1027389274739</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1018601222932257</v>
+        <v>0.169106597344933</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B121" t="n">
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>-585.7707473136325</v>
+        <v>-986.5607863262053</v>
       </c>
       <c r="D121" t="n">
-        <v>-5720.825609177909</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>910.4976742673675</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1018601222932257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B122" t="n">
         <v>121</v>
       </c>
       <c r="C122" t="n">
-        <v>-652.7031057850755</v>
+        <v>-999.9999999999997</v>
       </c>
       <c r="D122" t="n">
-        <v>-5009.611156571249</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>797.3043785366211</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1291981842977118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B123" t="n">
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>-652.7031057850755</v>
+        <v>-1000.000000000002</v>
       </c>
       <c r="D123" t="n">
-        <v>5009.611156571249</v>
+        <v>1.207705288751469e-11</v>
       </c>
       <c r="E123" t="n">
-        <v>797.3043785366211</v>
+        <v>1.92212266503021e-12</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1291981842977118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B124" t="n">
         <v>123</v>
       </c>
       <c r="C124" t="n">
-        <v>-883.795534654587</v>
+        <v>-1000.000000000002</v>
       </c>
       <c r="D124" t="n">
-        <v>2701.461583888432</v>
+        <v>-1.207705288751469e-11</v>
       </c>
       <c r="E124" t="n">
-        <v>429.9509646487049</v>
+        <v>1.92212266503021e-12</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3109376330180915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B125" t="n">
         <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>-883.795534654587</v>
+        <v>-1009.608968253762</v>
       </c>
       <c r="D125" t="n">
-        <v>-2701.461583888432</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>429.9509646487049</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3109376330180915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B126" t="n">
         <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>-894.1966698545226</v>
+        <v>-1546.274993474539</v>
       </c>
       <c r="D126" t="n">
-        <v>-2072.307414001542</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>329.8179685443283</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3961882850118386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B127" t="n">
         <v>126</v>
       </c>
       <c r="C127" t="n">
-        <v>-894.1966698545226</v>
+        <v>-1632.489169561263</v>
       </c>
       <c r="D127" t="n">
-        <v>2072.307414001542</v>
+        <v>4694.094326629655</v>
       </c>
       <c r="E127" t="n">
-        <v>329.8179685443283</v>
+        <v>747.0883154227316</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3961882850118386</v>
+        <v>0.3284776724940959</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B128" t="n">
         <v>127</v>
       </c>
       <c r="C128" t="n">
-        <v>-1000.000000000001</v>
+        <v>-1632.489169561263</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-4694.094326629655</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>747.0883154227316</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0.3284776724940959</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B129" t="n">
         <v>128</v>
       </c>
       <c r="C129" t="n">
-        <v>-1000.000000000004</v>
+        <v>-1685.3517154456</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>4324.687669764259</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>688.2954199715522</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0.3631065571332855</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B130" t="n">
         <v>129</v>
       </c>
       <c r="C130" t="n">
-        <v>-1071.911554969855</v>
+        <v>-1685.3517154456</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-4324.687669764259</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>688.2954199715522</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0.3631065571332855</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B131" t="n">
         <v>130</v>
       </c>
       <c r="C131" t="n">
-        <v>-1206.333706065176</v>
+        <v>-9995.422995607567</v>
       </c>
       <c r="D131" t="n">
-        <v>4219.793936621021</v>
+        <v>-2.190849648539017</v>
       </c>
       <c r="E131" t="n">
-        <v>671.6010638424436</v>
+        <v>0.3486845511361261</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2748640108475516</v>
+        <v>0.999999975978906</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B132" t="n">
         <v>131</v>
       </c>
       <c r="C132" t="n">
-        <v>-1206.333706065176</v>
+        <v>-9995.422995607567</v>
       </c>
       <c r="D132" t="n">
-        <v>-4219.793936621021</v>
+        <v>2.190849648539017</v>
       </c>
       <c r="E132" t="n">
-        <v>671.6010638424436</v>
+        <v>0.3486845511361261</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2748640108475516</v>
+        <v>0.999999975978906</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B133" t="n">
         <v>132</v>
       </c>
       <c r="C133" t="n">
-        <v>-1231.991653012821</v>
+        <v>-19765.08800356629</v>
       </c>
       <c r="D133" t="n">
-        <v>-4498.158071515226</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>715.9040918903555</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2641592727984097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B134" t="n">
         <v>133</v>
       </c>
       <c r="C134" t="n">
-        <v>-1231.991653012821</v>
+        <v>-22185.70115287858</v>
       </c>
       <c r="D134" t="n">
-        <v>4498.158071515226</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>715.9040918903555</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.2641592727984097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B135" t="n">
         <v>134</v>
       </c>
       <c r="C135" t="n">
-        <v>-1304.918733867299</v>
+        <v>-22348.98571239893</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -3142,441 +3142,121 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
         <v>135</v>
       </c>
       <c r="C136" t="n">
-        <v>-1465.011645527797</v>
+        <v>-1319477.021801821</v>
       </c>
       <c r="D136" t="n">
-        <v>-4902.404832061402</v>
+        <v>-314.1423908160152</v>
       </c>
       <c r="E136" t="n">
-        <v>780.2419620601652</v>
+        <v>49.99731433307484</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2863239304869199</v>
+        <v>0.9999999716587232</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
         <v>136</v>
       </c>
       <c r="C137" t="n">
-        <v>-1465.011645527797</v>
+        <v>-1319477.021801821</v>
       </c>
       <c r="D137" t="n">
-        <v>4902.404832061402</v>
+        <v>314.1423908160152</v>
       </c>
       <c r="E137" t="n">
-        <v>780.2419620601652</v>
+        <v>49.99731433307484</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2863239304869199</v>
+        <v>0.9999999716587232</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B138" t="n">
         <v>137</v>
       </c>
       <c r="C138" t="n">
-        <v>-1579.379649486894</v>
+        <v>-1319477.333134677</v>
       </c>
       <c r="D138" t="n">
-        <v>-4699.432372435031</v>
+        <v>-314.1423909996122</v>
       </c>
       <c r="E138" t="n">
-        <v>747.937891799108</v>
+        <v>49.99731436229521</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3185689968722754</v>
+        <v>0.9999999716587367</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B139" t="n">
         <v>138</v>
       </c>
       <c r="C139" t="n">
-        <v>-1579.379649486894</v>
+        <v>-1319477.333134677</v>
       </c>
       <c r="D139" t="n">
-        <v>4699.432372435031</v>
+        <v>314.1423909996122</v>
       </c>
       <c r="E139" t="n">
-        <v>747.937891799108</v>
+        <v>49.99731436229521</v>
       </c>
       <c r="F139" t="n">
-        <v>0.3185689968722754</v>
+        <v>0.9999999716587367</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B140" t="n">
         <v>139</v>
       </c>
       <c r="C140" t="n">
-        <v>-1581.006487649808</v>
+        <v>-1319477.934159478</v>
       </c>
       <c r="D140" t="n">
-        <v>4507.545274284233</v>
+        <v>-314.1423905529729</v>
       </c>
       <c r="E140" t="n">
-        <v>717.3981116128489</v>
+        <v>49.99731429121037</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3309780443474615</v>
+        <v>0.9999999716587623</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B141" t="n">
         <v>140</v>
       </c>
       <c r="C141" t="n">
-        <v>-1581.006487649808</v>
+        <v>-1319477.934159478</v>
       </c>
       <c r="D141" t="n">
-        <v>-4507.545274284233</v>
+        <v>314.1423905529729</v>
       </c>
       <c r="E141" t="n">
-        <v>717.3981116128489</v>
+        <v>49.99731429121037</v>
       </c>
       <c r="F141" t="n">
-        <v>0.3309780443474615</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B142" t="n">
-        <v>141</v>
-      </c>
-      <c r="C142" t="n">
-        <v>-1633.170427044364</v>
-      </c>
-      <c r="D142" t="n">
-        <v>4342.593859957427</v>
-      </c>
-      <c r="E142" t="n">
-        <v>691.1452786527384</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.3520109911907481</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B143" t="n">
-        <v>142</v>
-      </c>
-      <c r="C143" t="n">
-        <v>-1633.170427044364</v>
-      </c>
-      <c r="D143" t="n">
-        <v>-4342.593859957427</v>
-      </c>
-      <c r="E143" t="n">
-        <v>691.1452786527384</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.3520109911907481</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B144" t="n">
-        <v>143</v>
-      </c>
-      <c r="C144" t="n">
-        <v>-9995.475009633083</v>
-      </c>
-      <c r="D144" t="n">
-        <v>-2.1692469170032</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.3452463696279137</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.9999999764505324</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B145" t="n">
-        <v>144</v>
-      </c>
-      <c r="C145" t="n">
-        <v>-9995.475009633083</v>
-      </c>
-      <c r="D145" t="n">
-        <v>2.1692469170032</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.3452463696279137</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.9999999764505324</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B146" t="n">
-        <v>145</v>
-      </c>
-      <c r="C146" t="n">
-        <v>-9995.602039126597</v>
-      </c>
-      <c r="D146" t="n">
-        <v>-2.116833693529783</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.3369045460287393</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.9999999775753561</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B147" t="n">
-        <v>146</v>
-      </c>
-      <c r="C147" t="n">
-        <v>-9995.602039126597</v>
-      </c>
-      <c r="D147" t="n">
-        <v>2.116833693529783</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.3369045460287393</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.9999999775753561</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B148" t="n">
-        <v>147</v>
-      </c>
-      <c r="C148" t="n">
-        <v>-9995.781594713389</v>
-      </c>
-      <c r="D148" t="n">
-        <v>2.039954615065189</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.3246688606707495</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.999999979175361</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B149" t="n">
-        <v>148</v>
-      </c>
-      <c r="C149" t="n">
-        <v>-9995.781594713389</v>
-      </c>
-      <c r="D149" t="n">
-        <v>-2.039954615065189</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.3246688606707495</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.999999979175361</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B150" t="n">
-        <v>149</v>
-      </c>
-      <c r="C150" t="n">
-        <v>-22471.55285824873</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B151" t="n">
-        <v>150</v>
-      </c>
-      <c r="C151" t="n">
-        <v>-24113.13913013368</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B152" t="n">
-        <v>151</v>
-      </c>
-      <c r="C152" t="n">
-        <v>-1319477.021803005</v>
-      </c>
-      <c r="D152" t="n">
-        <v>-314.1423917942947</v>
-      </c>
-      <c r="E152" t="n">
-        <v>49.99731448877286</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.9999999716587231</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B153" t="n">
-        <v>152</v>
-      </c>
-      <c r="C153" t="n">
-        <v>-1319477.021803005</v>
-      </c>
-      <c r="D153" t="n">
-        <v>314.1423917942947</v>
-      </c>
-      <c r="E153" t="n">
-        <v>49.99731448877286</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.9999999716587231</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B154" t="n">
-        <v>153</v>
-      </c>
-      <c r="C154" t="n">
-        <v>-1319477.333135566</v>
-      </c>
-      <c r="D154" t="n">
-        <v>-314.1423907261706</v>
-      </c>
-      <c r="E154" t="n">
-        <v>49.99731431877564</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.9999999716587367</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B155" t="n">
-        <v>154</v>
-      </c>
-      <c r="C155" t="n">
-        <v>-1319477.333135566</v>
-      </c>
-      <c r="D155" t="n">
-        <v>314.1423907261706</v>
-      </c>
-      <c r="E155" t="n">
-        <v>49.99731431877564</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.9999999716587367</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B156" t="n">
-        <v>155</v>
-      </c>
-      <c r="C156" t="n">
-        <v>-1319477.934156799</v>
-      </c>
-      <c r="D156" t="n">
-        <v>-314.1423910324639</v>
-      </c>
-      <c r="E156" t="n">
-        <v>49.99731436752373</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.9999999716587623</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B157" t="n">
-        <v>156</v>
-      </c>
-      <c r="C157" t="n">
-        <v>-1319477.934156799</v>
-      </c>
-      <c r="D157" t="n">
-        <v>314.1423910324639</v>
-      </c>
-      <c r="E157" t="n">
-        <v>49.99731436752373</v>
-      </c>
-      <c r="F157" t="n">
         <v>0.9999999716587623</v>
       </c>
     </row>
